--- a/Jogos_do_Dia/2023-10-03_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-03_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -626,13 +626,13 @@
         <v>3.86</v>
       </c>
       <c r="J2" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>3.06</v>
       </c>
       <c r="M2" t="n">
         <v>1.42</v>
@@ -653,10 +653,10 @@
         <v>3.08</v>
       </c>
       <c r="S2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>1.81</v>
@@ -726,13 +726,13 @@
         <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="M3" t="n">
         <v>1.51</v>
@@ -753,7 +753,7 @@
         <v>2.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T3" t="n">
         <v>1.53</v>
@@ -826,13 +826,13 @@
         <v>2.9</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>2.98</v>
       </c>
       <c r="K4" t="n">
         <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M4" t="n">
         <v>1.3</v>
@@ -853,10 +853,10 @@
         <v>4.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.6</v>
@@ -926,13 +926,13 @@
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="K5" t="n">
         <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.34</v>
@@ -953,10 +953,10 @@
         <v>3.72</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>1.68</v>
@@ -1026,13 +1026,13 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="M6" t="n">
         <v>1.29</v>
@@ -1053,10 +1053,10 @@
         <v>4.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T6" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="U6" t="n">
         <v>1.63</v>
@@ -1126,13 +1126,13 @@
         <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>3.2</v>
+        <v>3.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.33</v>
@@ -1156,7 +1156,7 @@
         <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="U7" t="n">
         <v>1.66</v>
@@ -1226,13 +1226,13 @@
         <v>4.95</v>
       </c>
       <c r="J8" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="K8" t="n">
         <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>4.6</v>
+        <v>4.49</v>
       </c>
       <c r="M8" t="n">
         <v>1.36</v>
@@ -1253,10 +1253,10 @@
         <v>3.6</v>
       </c>
       <c r="S8" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U8" t="n">
         <v>1.8</v>
@@ -1426,13 +1426,13 @@
         <v>3.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="L10" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="M10" t="n">
         <v>1.44</v>
@@ -1508,85 +1508,85 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Crewe Alexandra</t>
+          <t>Doncaster Rovers</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gillingham</t>
+          <t>Crawley Town</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>2.41</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="N11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="R11" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="S11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T11" t="n">
         <v>2</v>
       </c>
-      <c r="T11" t="n">
-        <v>1.73</v>
-      </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X11" t="n">
         <v>1.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="12">
@@ -1608,91 +1608,91 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Doncaster Rovers</t>
+          <t>Grimsby Town</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Crawley Town</t>
+          <t>Barrow</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="L12" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="N12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.75</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="U12" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
         <v>1.25</v>
       </c>
       <c r="Y12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Z12" t="n">
         <v>1.6</v>
       </c>
-      <c r="Z12" t="n">
-        <v>1</v>
-      </c>
       <c r="AA12" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="AD12" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England EFL League Two</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -1708,85 +1708,85 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bolton Wanderers</t>
+          <t>Harrogate Town</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stevenage</t>
+          <t>AFC Wimbledon</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>3.3</v>
       </c>
       <c r="H13" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P13" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X13" t="n">
         <v>1.28</v>
       </c>
-      <c r="X13" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Y13" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.91</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="14">
@@ -1808,91 +1808,91 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Harrogate Town</t>
+          <t>Mansfield Town</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AFC Wimbledon</t>
+          <t>Wrexham</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="H14" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="L14" t="n">
-        <v>2.38</v>
+        <v>2.85</v>
       </c>
       <c r="M14" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="N14" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA14" t="n">
         <v>1.25</v>
       </c>
-      <c r="R14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="AB14" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AC14" t="n">
         <v>1.65</v>
       </c>
-      <c r="V14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.57</v>
-      </c>
       <c r="AD14" t="n">
-        <v>3.03</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>England EFL League Two</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -1908,85 +1908,85 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Morecambe</t>
+          <t>Bolton Wanderers</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Accrington Stanley</t>
+          <t>Stevenage</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.45</v>
+        <v>1.92</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2.8</v>
+        <v>3.97</v>
       </c>
       <c r="M15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.35</v>
       </c>
-      <c r="N15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P15" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X15" t="n">
         <v>1.24</v>
       </c>
-      <c r="R15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="Y15" t="n">
         <v>1.8</v>
       </c>
-      <c r="T15" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Z15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.75</v>
+        <v>2.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.26</v>
+        <v>1.47</v>
       </c>
       <c r="AD15" t="n">
-        <v>2.44</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="16">
@@ -2008,85 +2008,85 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Grimsby Town</t>
+          <t>Crewe Alexandra</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Barrow</t>
+          <t>Gillingham</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>2.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="L16" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="N16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O16" t="n">
         <v>1.05</v>
       </c>
       <c r="P16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="n">
         <v>1.33</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="S16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V16" t="n">
         <v>1.95</v>
       </c>
       <c r="W16" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
         <v>1.25</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.52</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="17">
@@ -2126,13 +2126,13 @@
         <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K17" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="L17" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="M17" t="n">
         <v>1.4</v>
@@ -2226,13 +2226,13 @@
         <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="K18" t="n">
-        <v>3.9</v>
+        <v>4.15</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.3</v>
@@ -2326,13 +2326,13 @@
         <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="L19" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="M19" t="n">
         <v>1.33</v>
@@ -2353,10 +2353,10 @@
         <v>3.6</v>
       </c>
       <c r="S19" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U19" t="n">
         <v>1.62</v>
@@ -2426,13 +2426,13 @@
         <v>3.2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.38</v>
       </c>
       <c r="L20" t="n">
-        <v>2.6</v>
+        <v>2.61</v>
       </c>
       <c r="M20" t="n">
         <v>1.36</v>
@@ -2453,10 +2453,10 @@
         <v>3.6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>1.67</v>
@@ -2526,13 +2526,13 @@
         <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="K21" t="n">
-        <v>3.4</v>
+        <v>3.44</v>
       </c>
       <c r="L21" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="M21" t="n">
         <v>1.4</v>
@@ -2553,10 +2553,10 @@
         <v>3.5</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="n">
         <v>1.67</v>
@@ -2626,13 +2626,13 @@
         <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="K22" t="n">
         <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="M22" t="n">
         <v>1.33</v>
@@ -2653,10 +2653,10 @@
         <v>3.6</v>
       </c>
       <c r="S22" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U22" t="n">
         <v>1.62</v>
@@ -2726,13 +2726,13 @@
         <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
-        <v>3.8</v>
+        <v>3.79</v>
       </c>
       <c r="M23" t="n">
         <v>1.3</v>
@@ -2753,10 +2753,10 @@
         <v>4.4</v>
       </c>
       <c r="S23" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="T23" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
         <v>1.55</v>
@@ -2808,91 +2808,91 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Mansfield Town</t>
+          <t>Morecambe</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Wrexham</t>
+          <t>Accrington Stanley</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="I24" t="n">
         <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.25</v>
+        <v>2.41</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="M24" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="P24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="R24" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="S24" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="U24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V24" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X24" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.74</v>
+        <v>1.18</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="AD24" t="n">
-        <v>3.39</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>England EFL League One</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
@@ -2904,89 +2904,89 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Plymouth Argyle</t>
+          <t>Burton Albion</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Millwall</t>
+          <t>Wigan Athletic</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="J25" t="n">
-        <v>2.7</v>
+        <v>3.08</v>
       </c>
       <c r="K25" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="L25" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="M25" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P25" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="S25" t="n">
         <v>1.75</v>
       </c>
       <c r="T25" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V25" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W25" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="X25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AB25" t="n">
         <v>1.28</v>
       </c>
-      <c r="Y25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AC25" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AD25" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="26">
@@ -3008,31 +3008,31 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Northampton Town</t>
+          <t>Oxford United</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Reading</t>
+          <t>Shrewsbury Town</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.6</v>
+        <v>1.59</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>2.6</v>
+        <v>5.56</v>
       </c>
       <c r="M26" t="n">
         <v>1.4</v>
@@ -3047,46 +3047,46 @@
         <v>12</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="R26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S26" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="T26" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="U26" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>1.47</v>
+        <v>1.14</v>
       </c>
       <c r="X26" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="27">
@@ -3108,31 +3108,31 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Burton Albion</t>
+          <t>Cambridge United</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Wigan Athletic</t>
+          <t>Barnsley</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>3.6</v>
       </c>
       <c r="H27" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="I27" t="n">
         <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.48</v>
       </c>
       <c r="L27" t="n">
-        <v>2.2</v>
+        <v>2.49</v>
       </c>
       <c r="M27" t="n">
         <v>1.36</v>
@@ -3141,22 +3141,22 @@
         <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P27" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R27" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>1.67</v>
@@ -3165,28 +3165,28 @@
         <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="X27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.09</v>
+        <v>1.47</v>
       </c>
       <c r="AD27" t="n">
-        <v>2.37</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="28">
@@ -3208,31 +3208,31 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cambridge United</t>
+          <t>Carlisle United</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Barnsley</t>
+          <t>Peterborough United</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.62</v>
+        <v>3.63</v>
       </c>
       <c r="K28" t="n">
         <v>3.5</v>
       </c>
       <c r="L28" t="n">
-        <v>2.45</v>
+        <v>2.01</v>
       </c>
       <c r="M28" t="n">
         <v>1.36</v>
@@ -3244,49 +3244,49 @@
         <v>1.05</v>
       </c>
       <c r="P28" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R28" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="S28" t="n">
         <v>1.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.52</v>
+        <v>1.77</v>
       </c>
       <c r="X28" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="Z28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.47</v>
+        <v>1.74</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.73</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="29">
@@ -3308,85 +3308,85 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Carlisle United</t>
+          <t>Charlton Athletic</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Peterborough United</t>
+          <t>Exeter City</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>2.14</v>
       </c>
       <c r="K29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T29" t="n">
         <v>2</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD29" t="n">
         <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P29" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="X29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>3.12</v>
       </c>
     </row>
     <row r="30">
@@ -3408,85 +3408,85 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Charlton Athletic</t>
+          <t>Cheltenham Town</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Exeter City</t>
+          <t>Fleetwood Town</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.1</v>
+        <v>3.02</v>
       </c>
       <c r="K30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R30" t="n">
         <v>3.5</v>
       </c>
-      <c r="L30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P30" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3.7</v>
-      </c>
       <c r="S30" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V30" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W30" t="n">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="X30" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>1.63</v>
+        <v>1.16</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="31">
@@ -3526,13 +3526,13 @@
         <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="L31" t="n">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="M31" t="n">
         <v>1.4</v>
@@ -3553,10 +3553,10 @@
         <v>3.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="T31" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="U31" t="n">
         <v>1.8</v>
@@ -3608,85 +3608,85 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Leyton Orient</t>
+          <t>Northampton Town</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lincoln City</t>
+          <t>Reading</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I32" t="n">
         <v>3.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K32" t="n">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="L32" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="N32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="O32" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="R32" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="S32" t="n">
-        <v>2.03</v>
+        <v>1.83</v>
       </c>
       <c r="T32" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W32" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
         <v>1.25</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.66</v>
+        <v>1.53</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD32" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="33">
@@ -3708,85 +3708,85 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cheltenham Town</t>
+          <t>Leyton Orient</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fleetwood Town</t>
+          <t>Lincoln City</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H33" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="K33" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="L33" t="n">
-        <v>2.3</v>
+        <v>2.66</v>
       </c>
       <c r="M33" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="N33" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="O33" t="n">
         <v>1.05</v>
       </c>
       <c r="P33" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X33" t="n">
         <v>1.25</v>
       </c>
-      <c r="R33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.27</v>
-      </c>
       <c r="Y33" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB33" t="n">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="AD33" t="n">
-        <v>2.39</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="34">
@@ -3808,31 +3808,31 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Oxford United</t>
+          <t>Portsmouth</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Shrewsbury Town</t>
+          <t>Wycombe Wanderers</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I34" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="J34" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>3.74</v>
       </c>
       <c r="L34" t="n">
-        <v>5.8</v>
+        <v>4.25</v>
       </c>
       <c r="M34" t="n">
         <v>1.4</v>
@@ -3841,10 +3841,10 @@
         <v>2.75</v>
       </c>
       <c r="O34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q34" t="n">
         <v>1.3</v>
@@ -3853,46 +3853,46 @@
         <v>3.5</v>
       </c>
       <c r="S34" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="T34" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="U34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.95</v>
       </c>
-      <c r="V34" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W34" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="X34" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>1.38</v>
+        <v>1.74</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.32</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>England EFL League One</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
@@ -3904,89 +3904,89 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Portsmouth</t>
+          <t>Ipswich Town</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Wycombe Wanderers</t>
+          <t>Hull City</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H35" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P35" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
         <v>1.75</v>
       </c>
-      <c r="K35" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P35" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.81</v>
-      </c>
       <c r="T35" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U35" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X35" t="n">
         <v>1.22</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="AD35" t="n">
-        <v>2.83</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="36">
@@ -4008,85 +4008,85 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ipswich Town</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Hull City</t>
+          <t>Cardiff City</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>2.35</v>
       </c>
       <c r="H36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="L36" t="n">
-        <v>4.5</v>
+        <v>4.43</v>
       </c>
       <c r="M36" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="N36" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P36" t="n">
         <v>13</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="S36" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T36" t="n">
         <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W36" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X36" t="n">
         <v>1.22</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="n">
-        <v>2.09</v>
+        <v>1.73</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AD36" t="n">
-        <v>3.26</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="37">
@@ -4108,31 +4108,31 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Plymouth Argyle</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cardiff City</t>
+          <t>Millwall</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.35</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I37" t="n">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="J37" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="K37" t="n">
-        <v>3.7</v>
+        <v>3.52</v>
       </c>
       <c r="L37" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="M37" t="n">
         <v>1.38</v>
@@ -4141,10 +4141,10 @@
         <v>3.1</v>
       </c>
       <c r="O37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="P37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q37" t="n">
         <v>1.28</v>
@@ -4153,40 +4153,40 @@
         <v>3.75</v>
       </c>
       <c r="S37" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="V37" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W37" t="n">
-        <v>1.2</v>
+        <v>1.52</v>
       </c>
       <c r="X37" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AB37" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.04</v>
+        <v>0.9</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.77</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="38">
@@ -4226,13 +4226,13 @@
         <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="K38" t="n">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="L38" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M38" t="n">
         <v>1.45</v>
@@ -4308,85 +4308,85 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Stoke City</t>
+          <t>West Bromwich Albion</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Sheffield Wednesday</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.5</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R39" t="n">
         <v>2.9</v>
       </c>
-      <c r="K39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P39" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4.2</v>
-      </c>
       <c r="S39" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="U39" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="V39" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="W39" t="n">
-        <v>1.63</v>
+        <v>1.17</v>
       </c>
       <c r="X39" t="n">
         <v>1.26</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="AB39" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="AD39" t="n">
-        <v>3.16</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="40">
@@ -4408,85 +4408,85 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>West Bromwich Albion</t>
+          <t>Stoke City</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sheffield Wednesday</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.5</v>
+        <v>2.95</v>
       </c>
       <c r="J40" t="n">
-        <v>1.8</v>
+        <v>2.91</v>
       </c>
       <c r="K40" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>2.33</v>
       </c>
       <c r="M40" t="n">
-        <v>1.52</v>
+        <v>1.36</v>
       </c>
       <c r="N40" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="P40" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="R40" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="S40" t="n">
-        <v>2.3</v>
+        <v>1.73</v>
       </c>
       <c r="T40" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="V40" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="W40" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="X40" t="n">
         <v>1.26</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.02</v>
+        <v>1.78</v>
       </c>
       <c r="AD40" t="n">
-        <v>2.37</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="41">
@@ -4526,13 +4526,13 @@
         <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="K41" t="n">
-        <v>3.1</v>
+        <v>3.26</v>
       </c>
       <c r="L41" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="M41" t="n">
         <v>1.52</v>
@@ -4553,10 +4553,10 @@
         <v>2.6</v>
       </c>
       <c r="S41" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U41" t="n">
         <v>2.1</v>
@@ -4626,13 +4626,13 @@
         <v>7.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="K42" t="n">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="L42" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M42" t="n">
         <v>1.47</v>
@@ -4653,7 +4653,7 @@
         <v>2.85</v>
       </c>
       <c r="S42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T42" t="n">
         <v>1.57</v>
